--- a/Task_List.xlsx
+++ b/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HP_Pavilion_dv6_files\New_Business_Initiative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0021A7E-2852-4499-8DA6-6F00621F5276}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CAAFB4-492D-475A-A112-02D1758A4131}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" xr2:uid="{F731776E-0CF0-4762-A900-F9C41799A118}"/>
   </bookViews>
@@ -55,7 +55,127 @@
         </r>
       </text>
     </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{BC3B7FDD-67AF-468B-86F1-A1BE9E70BB6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vishwambhara Adiga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done. Anil and Pruthvi to get accounts</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G5" authorId="0" shapeId="0" xr:uid="{2A31B076-A620-4663-B161-1CAC4FF52087}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{51410BAB-706E-4888-BDDF-367BA9DF8A27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{CA333111-4066-436A-A3E5-25A23DE62A0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{1297D392-7EEF-4460-98FB-1404F7FEDC97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{CE67E3AB-9094-4E4E-AF48-EDFADC3C1330}">
       <text>
         <r>
           <rPr>
@@ -103,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{3E75316E-77C0-406B-B766-E95E5378CD0A}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{68A30FB2-D4C4-4910-8A08-13C9E3E1A2C1}">
       <text>
         <r>
           <rPr>
@@ -113,6 +233,102 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Pruthvi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{A44FB872-C426-42C9-952F-F294BEBFA094}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{48996E2F-BF96-4C27-BBD3-751DA502C93F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{87C0E847-1DEE-4658-9E8F-F9564B1C1A99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7833719A-F7C3-4FB4-B2CB-E1A43A16F6AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Vishwambhara Adiga:</t>
         </r>
         <r>
@@ -123,7 +339,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not started Yet</t>
+Done.</t>
         </r>
       </text>
     </comment>
@@ -151,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{4F569DDD-2A32-462C-A980-F2724FE365BB}">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{4F569DDD-2A32-462C-A980-F2724FE365BB}">
       <text>
         <r>
           <rPr>
@@ -172,6 +388,54 @@
           </rPr>
           <t xml:space="preserve">
 Not Started Yet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{9829CCF0-8613-4F5C-AD3D-038E938C04EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vishwambhara Adiga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ppt done, integrating with Microstrtegy. Anil to help Pruthvi as required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{8842A7DE-32FA-496E-8159-40D12AE8FD6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In work</t>
         </r>
       </text>
     </comment>
@@ -180,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>Talk to city of Bellevue for POC</t>
   </si>
@@ -237,15 +501,6 @@
     <t>Have weekly call for the team</t>
   </si>
   <si>
-    <t>Start the sensor Research</t>
-  </si>
-  <si>
-    <t>Find a suitable Technology</t>
-  </si>
-  <si>
-    <t>Come up with an installation strategy</t>
-  </si>
-  <si>
     <t>Come up with Proposal and RFP Template</t>
   </si>
   <si>
@@ -253,6 +508,24 @@
   </si>
   <si>
     <t>Get the deck and website started</t>
+  </si>
+  <si>
+    <t>Get the CMA steps deck completed</t>
+  </si>
+  <si>
+    <t>Get the task list uploaded on Github</t>
+  </si>
+  <si>
+    <t>Come up with an installation strategy for the IOT sensor</t>
+  </si>
+  <si>
+    <t>Start the IOT sensor Research</t>
+  </si>
+  <si>
+    <t>Find a suitable Technology to work with IOT Data</t>
+  </si>
+  <si>
+    <t>Start the CMA automation and machine learning algorithm</t>
   </si>
 </sst>
 </file>
@@ -303,7 +576,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +607,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -435,36 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -485,8 +734,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -501,12 +752,92 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -516,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,13 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,34 +889,58 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,10 +1259,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC3FBF7-F831-4C0F-B414-53D7E015A72A}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -921,11 +1270,12 @@
     <col min="5" max="5" width="13.1015625" customWidth="1"/>
     <col min="6" max="6" width="16.62890625" customWidth="1"/>
     <col min="7" max="7" width="15.68359375" customWidth="1"/>
-    <col min="8" max="8" width="14.20703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.20703125" style="17" customWidth="1"/>
     <col min="9" max="9" width="16.26171875" customWidth="1"/>
     <col min="10" max="10" width="15.62890625" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" customWidth="1"/>
     <col min="16" max="16" width="16.05078125" customWidth="1"/>
-    <col min="17" max="17" width="10.734375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="10.734375" style="17" customWidth="1"/>
     <col min="18" max="18" width="18.47265625" customWidth="1"/>
     <col min="19" max="19" width="12.47265625" customWidth="1"/>
     <col min="20" max="20" width="16.15625" customWidth="1"/>
@@ -941,7 +1291,7 @@
       <c r="C2" s="5">
         <v>43263</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>43264</v>
       </c>
       <c r="E2" s="6">
@@ -953,10 +1303,10 @@
       <c r="G2" s="5">
         <v>43298</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <v>43299</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>43300</v>
       </c>
       <c r="J2" s="7">
@@ -980,10 +1330,10 @@
       <c r="P2" s="7">
         <v>43329</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="18">
         <v>43330</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="15">
         <v>43331</v>
       </c>
       <c r="S2" s="7">
@@ -1026,12 +1376,12 @@
         <v>8</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -1039,8 +1389,8 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="16"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -1058,18 +1408,20 @@
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1092,17 +1444,25 @@
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="10"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1122,22 +1482,30 @@
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
     </row>
-    <row r="6" spans="1:29" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="G6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1157,22 +1525,27 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
     </row>
-    <row r="7" spans="1:29" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3"/>
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="10"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1192,19 +1565,19 @@
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
     </row>
-    <row r="8" spans="1:29" ht="72.599999999999994" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:29" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="10"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1232,8 +1605,8 @@
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="10"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1265,13 +1638,13 @@
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="10"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="8"/>
@@ -1300,16 +1673,22 @@
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1330,20 +1709,30 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
     </row>
-    <row r="12" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="G12" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -1368,8 +1757,8 @@
       <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1401,10 +1790,10 @@
       <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
@@ -1433,14 +1822,15 @@
       <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="10"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -1463,14 +1853,15 @@
       <c r="B16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -1493,18 +1884,31 @@
       <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -1527,16 +1931,16 @@
       <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -1560,8 +1964,8 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1593,8 +1997,8 @@
       <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="10"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1626,8 +2030,8 @@
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1659,8 +2063,8 @@
       <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1690,8 +2094,8 @@
     <row r="23" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="10"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1721,8 +2125,8 @@
     <row r="24" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="3"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="10"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1752,8 +2156,8 @@
     <row r="25" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="3"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="10"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1783,8 +2187,8 @@
     <row r="26" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="3"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="10"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1814,8 +2218,8 @@
     <row r="27" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="3"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="10"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1845,8 +2249,8 @@
     <row r="28" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="10"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1876,8 +2280,8 @@
     <row r="29" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="10"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1907,8 +2311,8 @@
     <row r="30" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="10"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1938,8 +2342,8 @@
     <row r="31" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="3"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="10"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1967,10 +2371,10 @@
       <c r="AC31" s="11"/>
     </row>
     <row r="32" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="10"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>

--- a/Task_List.xlsx
+++ b/Task_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HP_Pavilion_dv6_files\New_Business_Initiative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CAAFB4-492D-475A-A112-02D1758A4131}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8ED32-4EC0-4230-8340-E6059898092F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" xr2:uid="{F731776E-0CF0-4762-A900-F9C41799A118}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="4854" xr2:uid="{F731776E-0CF0-4762-A900-F9C41799A118}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly_Schedule_Tasks" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{0C66EB32-F83E-4A75-826A-BE96E55AD43A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vishwambhara Adiga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done. Follow up with Kevin on Permits</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G5" authorId="0" shapeId="0" xr:uid="{2A31B076-A620-4663-B161-1CAC4FF52087}">
       <text>
         <r>
@@ -199,6 +223,131 @@
         </r>
       </text>
     </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{97A2B42D-A8BC-4763-BF63-019A50D8FB9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In progress</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{62DD5274-30ED-4CAB-894B-D6779505A435}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:
+In progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{8A14E8F5-2443-47A6-AC30-AD96A4C234B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anil:
+In progress
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{7C017526-4957-4819-ADAF-FA1C16B9671B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:
+In progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{6FA960C8-71B5-4D0F-87B1-75A5E57D24E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anil:
+In progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G6" authorId="0" shapeId="0" xr:uid="{40BF344A-CA71-42A4-BC9A-8A7BCAF7491E}">
       <text>
         <r>
@@ -319,6 +468,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{D6A5BDCD-D874-46CA-80BA-924D2C0914A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In Progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{0F3675C9-0643-4EE3-AFDB-003916E20E01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In Progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{778C0EDC-43F4-434B-9FD6-FA621BB4991B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In Progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{122905F7-FE85-413C-9717-C49085407931}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In Progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{77E2EE9D-C17E-427F-B83A-4A8DA34A7156}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pruthvi:
+In Progress
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7833719A-F7C3-4FB4-B2CB-E1A43A16F6AC}">
       <text>
         <r>
@@ -343,6 +618,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{82D92E5D-CCB1-496C-956D-A665B0AD520D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vishwambhara Adiga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In progress</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I10" authorId="0" shapeId="0" xr:uid="{5FA28AE0-77FD-4095-946D-761F3AA6387D}">
       <text>
         <r>
@@ -367,6 +666,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{0DBD5078-49C9-457C-AE0B-6C4CC2B90D6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vishwambhara Adiga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{64FBD6B8-12ED-4DCF-915D-57874B5A7390}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vishwambhara Adiga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fix a time</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H11" authorId="0" shapeId="0" xr:uid="{4F569DDD-2A32-462C-A980-F2724FE365BB}">
       <text>
         <r>
@@ -436,6 +783,230 @@
           </rPr>
           <t xml:space="preserve">
 In work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{0264640B-7264-4033-8556-496F087995FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{602FBA6A-3831-4DA2-9658-51A01CB9029E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{91131B9D-81DA-41DB-991C-A9497648E455}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{89775FE1-A86A-4C26-AE7B-A0AD1A30B2BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{3DD4CD6D-7405-481A-A38A-A8710A4B74CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{A8A6251B-0B1C-4DC3-8DDE-7E7B0BEDA8E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{9B274658-0ED7-4126-8253-0F4D3BF35A82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{A8775BC5-2FB7-419E-AFCE-54C9EDF43E91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi: In Progress</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{EE216488-F2BF-46CA-8953-EF200FC57D70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pruthvi:
+In work</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -444,7 +1015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>Talk to city of Bellevue for POC</t>
   </si>
@@ -455,38 +1026,7 @@
     <t xml:space="preserve">Real Estate </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Get the template and business structure for proposal. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Get the RFP main frame ready for template  </t>
-    </r>
-  </si>
-  <si>
-    <t>Get AMT and Hobart schedule confirmed. Get in touch with other suppliers sent by Rajesh.</t>
-  </si>
-  <si>
     <t>AE&amp;C inc work</t>
-  </si>
-  <si>
-    <t>Start the basic ppt for the company profile.</t>
-  </si>
-  <si>
-    <t>Apply for at least 10 jobs.</t>
   </si>
   <si>
     <t>Projects</t>
@@ -527,12 +1067,18 @@
   <si>
     <t>Start the CMA automation and machine learning algorithm</t>
   </si>
+  <si>
+    <t>Get with Pruthvi to help with CMA</t>
+  </si>
+  <si>
+    <t>Get the use case document/sensor/evaluation template completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,20 +1090,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -847,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -941,6 +1473,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,10 +1794,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC3FBF7-F831-4C0F-B414-53D7E015A72A}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1274,8 +1809,12 @@
     <col min="9" max="9" width="16.26171875" customWidth="1"/>
     <col min="10" max="10" width="15.62890625" customWidth="1"/>
     <col min="11" max="11" width="14.26171875" customWidth="1"/>
-    <col min="16" max="16" width="16.05078125" customWidth="1"/>
-    <col min="17" max="17" width="10.734375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.89453125" customWidth="1"/>
+    <col min="13" max="13" width="12.89453125" customWidth="1"/>
+    <col min="14" max="14" width="12.47265625" customWidth="1"/>
+    <col min="15" max="15" width="12.26171875" customWidth="1"/>
+    <col min="16" max="16" width="13.89453125" customWidth="1"/>
+    <col min="17" max="17" width="13.41796875" style="17" customWidth="1"/>
     <col min="18" max="18" width="18.47265625" customWidth="1"/>
     <col min="19" max="19" width="12.47265625" customWidth="1"/>
     <col min="20" max="20" width="16.15625" customWidth="1"/>
@@ -1289,91 +1828,91 @@
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
-        <v>43263</v>
+        <v>43324</v>
       </c>
       <c r="D2" s="21">
-        <v>43264</v>
+        <v>43325</v>
       </c>
       <c r="E2" s="6">
-        <v>43296</v>
+        <v>43326</v>
       </c>
       <c r="F2" s="5">
-        <v>43297</v>
+        <v>43327</v>
       </c>
       <c r="G2" s="5">
-        <v>43298</v>
+        <v>43328</v>
       </c>
       <c r="H2" s="18">
-        <v>43299</v>
+        <v>43329</v>
       </c>
       <c r="I2" s="15">
-        <v>43300</v>
+        <v>43330</v>
       </c>
       <c r="J2" s="7">
-        <v>43301</v>
+        <v>43331</v>
       </c>
       <c r="K2" s="7">
-        <v>43324</v>
+        <v>43332</v>
       </c>
       <c r="L2" s="7">
-        <v>43325</v>
+        <v>43333</v>
       </c>
       <c r="M2" s="7">
-        <v>43326</v>
+        <v>43334</v>
       </c>
       <c r="N2" s="7">
-        <v>43327</v>
+        <v>43335</v>
       </c>
       <c r="O2" s="7">
-        <v>43328</v>
+        <v>43336</v>
       </c>
       <c r="P2" s="7">
-        <v>43329</v>
+        <v>43337</v>
       </c>
       <c r="Q2" s="18">
-        <v>43330</v>
+        <v>43338</v>
       </c>
       <c r="R2" s="15">
-        <v>43331</v>
+        <v>43339</v>
       </c>
       <c r="S2" s="7">
-        <v>43332</v>
+        <v>43340</v>
       </c>
       <c r="T2" s="7">
-        <v>43313</v>
+        <v>43341</v>
       </c>
       <c r="U2" s="7">
-        <v>43314</v>
+        <v>43342</v>
       </c>
       <c r="V2" s="7">
-        <v>43315</v>
+        <v>43343</v>
       </c>
       <c r="W2" s="7">
-        <v>43316</v>
+        <v>43344</v>
       </c>
       <c r="X2" s="7">
-        <v>43317</v>
+        <v>43345</v>
       </c>
       <c r="Y2" s="7">
-        <v>43318</v>
+        <v>43346</v>
       </c>
       <c r="Z2" s="7">
-        <v>43319</v>
+        <v>43347</v>
       </c>
       <c r="AA2" s="7">
-        <v>43320</v>
+        <v>43348</v>
       </c>
       <c r="AB2" s="7">
-        <v>43321</v>
+        <v>43349</v>
       </c>
       <c r="AC2" s="7">
-        <v>43322</v>
+        <v>43350</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="22"/>
@@ -1406,20 +1945,20 @@
     <row r="4" spans="1:29" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
       <c r="F4" s="20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="8"/>
@@ -1439,35 +1978,45 @@
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
     </row>
-    <row r="5" spans="1:29" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3"/>
       <c r="B5" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
       <c r="F5" s="8"/>
       <c r="G5" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
       <c r="S5" s="8"/>
@@ -1482,35 +2031,45 @@
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
     </row>
-    <row r="6" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:29" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
       <c r="G6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
       <c r="S6" s="8"/>
@@ -1525,32 +2084,42 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
     </row>
-    <row r="7" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:29" ht="101.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3"/>
       <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
       <c r="F7" s="8"/>
       <c r="H7" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
       <c r="S7" s="8"/>
@@ -1568,7 +2137,7 @@
     <row r="8" spans="1:29" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="8"/>
@@ -1576,14 +2145,16 @@
       <c r="F8" s="8"/>
       <c r="G8" s="11"/>
       <c r="H8" s="20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="37" t="s">
+        <v>18</v>
+      </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="9"/>
@@ -1603,7 +2174,7 @@
     <row r="9" spans="1:29" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
       <c r="B9" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="8"/>
@@ -1633,7 +2204,7 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
     </row>
-    <row r="10" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="12" t="s">
         <v>1</v>
@@ -1645,16 +2216,20 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="R10" s="10"/>
       <c r="S10" s="8"/>
       <c r="T10" s="11"/>
@@ -1668,7 +2243,7 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
     </row>
-    <row r="11" spans="1:29" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:29" ht="72.599999999999994" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
       <c r="B11" s="12" t="s">
         <v>2</v>
@@ -1678,27 +2253,38 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="H11" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="Q11" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="R11" s="10"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="T11" s="8"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -1709,7 +2295,7 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
     </row>
-    <row r="12" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:29" ht="72.599999999999994" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>2</v>
@@ -1719,26 +2305,38 @@
       <c r="E12" s="10"/>
       <c r="F12" s="8"/>
       <c r="G12" s="28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="R12" s="10"/>
       <c r="S12" s="8"/>
       <c r="T12" s="11"/>
@@ -1785,7 +2383,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
     </row>
-    <row r="14" spans="1:29" ht="101.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3"/>
       <c r="B14" s="12" t="s">
         <v>2</v>
@@ -1803,9 +2401,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="S14" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="S14" s="8"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
@@ -1882,39 +2478,43 @@
     <row r="17" spans="1:29" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="30"/>
       <c r="G17" s="24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="S17" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="8"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
@@ -1929,7 +2529,7 @@
     <row r="18" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
       <c r="B18" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="8"/>
@@ -1945,9 +2545,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="9"/>
-      <c r="S18" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="S18" s="8"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -1962,7 +2560,7 @@
     <row r="19" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
       <c r="B19" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="8"/>
@@ -1995,7 +2593,7 @@
     <row r="20" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="8"/>
@@ -2028,7 +2626,7 @@
     <row r="21" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="8"/>
@@ -2061,7 +2659,7 @@
     <row r="22" spans="1:29" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="8"/>
